--- a/gt_sources/nern_et_al_2024/nern_et_al_2024.xlsx
+++ b/gt_sources/nern_et_al_2024/nern_et_al_2024.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812717B3-9EF0-FA4E-9C22-76DBD21B092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56A6871-22C1-EE4F-ACD1-31B1607C7909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="760" windowWidth="33020" windowHeight="20480" xr2:uid="{8B32769E-D294-A542-91C3-E9CF9391C3F2}"/>
+    <workbookView xWindow="10340" yWindow="760" windowWidth="33020" windowHeight="20480" xr2:uid="{8B32769E-D294-A542-91C3-E9CF9391C3F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="318">
   <si>
     <t>Notes</t>
   </si>
@@ -514,9 +514,6 @@
   </si>
   <si>
     <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
   </si>
   <si>
     <t>Dm10</t>
@@ -1005,7 +1002,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1057,20 +1054,13 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,6 +1082,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,15 +1113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1133,9 +1123,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1161,7 +1148,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1179,6 +1165,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1498,15 +1487,15 @@
   <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.1640625" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
@@ -1516,275 +1505,275 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>197</v>
+        <v>204</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="A2" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" t="s">
         <v>311</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" t="s">
-        <v>312</v>
-      </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" t="s">
-        <v>180</v>
-      </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>196</v>
+      <c r="A7" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>196</v>
+      <c r="A8" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>196</v>
+      <c r="C12" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
         <v>115</v>
@@ -1793,159 +1782,159 @@
         <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>196</v>
+      <c r="C19" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
         <v>115</v>
@@ -1954,67 +1943,67 @@
         <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>196</v>
+      <c r="C22" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
         <v>115</v>
@@ -2023,343 +2012,343 @@
         <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="C27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="C28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="C29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="C30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" t="s">
-        <v>194</v>
-      </c>
-      <c r="E33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>196</v>
+      <c r="C37" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E37" t="s">
         <v>115</v>
@@ -2368,21 +2357,21 @@
         <v>123</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>196</v>
+      <c r="A38" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
         <v>115</v>
@@ -2391,21 +2380,21 @@
         <v>123</v>
       </c>
       <c r="G38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>196</v>
+      <c r="A39" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2414,44 +2403,44 @@
         <v>123</v>
       </c>
       <c r="G39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" t="s">
         <v>298</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D40" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" t="s">
-        <v>299</v>
-      </c>
       <c r="F40" t="s">
         <v>123</v>
       </c>
       <c r="G40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>196</v>
+      <c r="B41" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E41" t="s">
         <v>116</v>
@@ -2460,21 +2449,21 @@
         <v>123</v>
       </c>
       <c r="G41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>196</v>
+      <c r="A42" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E42" t="s">
         <v>116</v>
@@ -2483,21 +2472,21 @@
         <v>123</v>
       </c>
       <c r="G42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>196</v>
+      <c r="A43" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E43" t="s">
         <v>116</v>
@@ -2506,21 +2495,21 @@
         <v>123</v>
       </c>
       <c r="G43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>196</v>
+      <c r="A44" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E44" t="s">
         <v>116</v>
@@ -2529,21 +2518,21 @@
         <v>123</v>
       </c>
       <c r="G44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>196</v>
+      <c r="A45" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E45" t="s">
         <v>116</v>
@@ -2552,21 +2541,21 @@
         <v>123</v>
       </c>
       <c r="G45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>196</v>
+      <c r="A46" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E46" t="s">
         <v>116</v>
@@ -2575,21 +2564,21 @@
         <v>123</v>
       </c>
       <c r="G46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>196</v>
+      <c r="A47" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E47" t="s">
         <v>118</v>
@@ -2598,21 +2587,21 @@
         <v>123</v>
       </c>
       <c r="G47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>196</v>
+      <c r="A48" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s">
         <v>118</v>
@@ -2621,21 +2610,21 @@
         <v>123</v>
       </c>
       <c r="G48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>196</v>
+      <c r="A49" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s">
         <v>118</v>
@@ -2644,21 +2633,21 @@
         <v>123</v>
       </c>
       <c r="G49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>196</v>
+      <c r="A50" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E50" t="s">
         <v>118</v>
@@ -2667,21 +2656,21 @@
         <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>196</v>
+      <c r="A51" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
         <v>118</v>
@@ -2690,21 +2679,21 @@
         <v>123</v>
       </c>
       <c r="G51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>196</v>
+      <c r="A52" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E52" t="s">
         <v>118</v>
@@ -2713,21 +2702,21 @@
         <v>123</v>
       </c>
       <c r="G52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>196</v>
+      <c r="A53" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E53" t="s">
         <v>118</v>
@@ -2736,21 +2725,21 @@
         <v>123</v>
       </c>
       <c r="G53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>196</v>
+      <c r="A54" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E54" t="s">
         <v>118</v>
@@ -2759,21 +2748,21 @@
         <v>123</v>
       </c>
       <c r="G54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>196</v>
+      <c r="A55" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
         <v>118</v>
@@ -2782,21 +2771,21 @@
         <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>196</v>
+      <c r="B56" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
         <v>118</v>
@@ -2805,24 +2794,24 @@
         <v>123</v>
       </c>
       <c r="G56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>196</v>
+      <c r="B57" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E57" t="s">
         <v>118</v>
@@ -2831,24 +2820,24 @@
         <v>123</v>
       </c>
       <c r="G57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>196</v>
+      <c r="B58" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E58" t="s">
         <v>118</v>
@@ -2857,24 +2846,24 @@
         <v>123</v>
       </c>
       <c r="G58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>196</v>
+      <c r="B59" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E59" t="s">
         <v>118</v>
@@ -2883,24 +2872,24 @@
         <v>123</v>
       </c>
       <c r="G59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>196</v>
+      <c r="A60" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E60" t="s">
         <v>118</v>
@@ -2909,392 +2898,392 @@
         <v>123</v>
       </c>
       <c r="G60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>196</v>
+      <c r="A61" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" t="s">
+        <v>312</v>
+      </c>
+      <c r="F66" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" t="s">
         <v>194</v>
       </c>
-      <c r="E61" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" t="s">
-        <v>123</v>
-      </c>
-      <c r="G61" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E68" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" t="s">
+        <v>288</v>
+      </c>
+      <c r="G68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" t="s">
         <v>194</v>
       </c>
-      <c r="E62" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" t="s">
-        <v>190</v>
-      </c>
-      <c r="F63" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" t="s">
-        <v>194</v>
-      </c>
-      <c r="E64" t="s">
-        <v>300</v>
-      </c>
-      <c r="F64" t="s">
-        <v>123</v>
-      </c>
-      <c r="G64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D65" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" t="s">
-        <v>300</v>
-      </c>
-      <c r="F65" t="s">
-        <v>123</v>
-      </c>
-      <c r="G65" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D66" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" t="s">
-        <v>313</v>
-      </c>
-      <c r="F66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D67" t="s">
-        <v>311</v>
-      </c>
-      <c r="E67" t="s">
-        <v>115</v>
-      </c>
-      <c r="F67" t="s">
-        <v>309</v>
-      </c>
-      <c r="G67" t="s">
-        <v>200</v>
-      </c>
-      <c r="H67" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D68" t="s">
-        <v>195</v>
-      </c>
-      <c r="E68" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68" t="s">
-        <v>289</v>
-      </c>
-      <c r="G68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" t="s">
-        <v>195</v>
-      </c>
       <c r="E69" t="s">
         <v>115</v>
       </c>
       <c r="F69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>196</v>
+      <c r="B70" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F70" t="s">
         <v>159</v>
       </c>
       <c r="G70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>196</v>
+      <c r="A71" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F71" t="s">
         <v>159</v>
       </c>
       <c r="G71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>196</v>
+      <c r="A72" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
         <v>118</v>
       </c>
       <c r="F72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G72" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="D73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E73" t="s">
         <v>117</v>
       </c>
-      <c r="F73" s="16" t="s">
-        <v>288</v>
+      <c r="F73" s="13" t="s">
+        <v>287</v>
       </c>
       <c r="G73" t="s">
-        <v>201</v>
-      </c>
-      <c r="H73" s="15"/>
+        <v>200</v>
+      </c>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>196</v>
+      <c r="A74" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E74" t="s">
         <v>118</v>
       </c>
       <c r="F74" t="s">
+        <v>289</v>
+      </c>
+      <c r="G74" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G74" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>196</v>
+      <c r="B75" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E75" t="s">
         <v>116</v>
       </c>
       <c r="F75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B76" s="10" t="s">
+      <c r="A76" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>196</v>
+      <c r="B76" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
         <v>116</v>
       </c>
       <c r="F76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D77" t="s">
@@ -3307,17 +3296,17 @@
         <v>121</v>
       </c>
       <c r="G77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D78" t="s">
@@ -3330,20 +3319,20 @@
         <v>121</v>
       </c>
       <c r="G78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D79" t="s">
@@ -3356,24 +3345,24 @@
         <v>121</v>
       </c>
       <c r="G79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H79" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="B80" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
         <v>115</v>
@@ -3382,17 +3371,17 @@
         <v>121</v>
       </c>
       <c r="G80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D81" t="s">
@@ -3405,20 +3394,20 @@
         <v>121</v>
       </c>
       <c r="G81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H81" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D82" t="s">
@@ -3431,17 +3420,17 @@
         <v>121</v>
       </c>
       <c r="G82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D83" t="s">
@@ -3454,17 +3443,17 @@
         <v>121</v>
       </c>
       <c r="G83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D84" t="s">
@@ -3477,17 +3466,17 @@
         <v>121</v>
       </c>
       <c r="G84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D85" t="s">
@@ -3500,24 +3489,24 @@
         <v>121</v>
       </c>
       <c r="G85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E86" t="s">
         <v>115</v>
@@ -3526,17 +3515,17 @@
         <v>121</v>
       </c>
       <c r="G86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D87" t="s">
@@ -3549,17 +3538,17 @@
         <v>121</v>
       </c>
       <c r="G87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D88" t="s">
@@ -3572,20 +3561,20 @@
         <v>121</v>
       </c>
       <c r="G88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H88" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D89" t="s">
@@ -3598,111 +3587,111 @@
         <v>121</v>
       </c>
       <c r="G89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" t="s">
+        <v>121</v>
+      </c>
+      <c r="G90" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C90" s="4" t="s">
+      <c r="B91" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D90" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" t="s">
-        <v>115</v>
-      </c>
-      <c r="F90" t="s">
-        <v>121</v>
-      </c>
-      <c r="G90" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="D91" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G91" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D91" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" t="s">
-        <v>115</v>
-      </c>
-      <c r="F91" t="s">
-        <v>121</v>
-      </c>
-      <c r="G91" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="D92" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" t="s">
+        <v>121</v>
+      </c>
+      <c r="G92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D92" t="s">
-        <v>120</v>
-      </c>
-      <c r="E92" t="s">
-        <v>115</v>
-      </c>
-      <c r="F92" t="s">
-        <v>121</v>
-      </c>
-      <c r="G92" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" s="4" t="s">
+      <c r="D93" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" t="s">
+        <v>121</v>
+      </c>
+      <c r="G93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D93" t="s">
-        <v>120</v>
-      </c>
-      <c r="E93" t="s">
-        <v>115</v>
-      </c>
-      <c r="F93" t="s">
-        <v>121</v>
-      </c>
-      <c r="G93" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D94" t="s">
         <v>120</v>
       </c>
@@ -3713,20 +3702,20 @@
         <v>121</v>
       </c>
       <c r="G94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H94" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D95" t="s">
@@ -3739,17 +3728,17 @@
         <v>121</v>
       </c>
       <c r="G95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D96" t="s">
@@ -3762,21 +3751,21 @@
         <v>121</v>
       </c>
       <c r="G96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E97" t="s">
         <v>115</v>
@@ -3785,20 +3774,20 @@
         <v>121</v>
       </c>
       <c r="G97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D98" t="s">
@@ -3811,17 +3800,17 @@
         <v>121</v>
       </c>
       <c r="G98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D99" t="s">
@@ -3834,21 +3823,21 @@
         <v>121</v>
       </c>
       <c r="G99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E100" t="s">
         <v>116</v>
@@ -3857,20 +3846,20 @@
         <v>121</v>
       </c>
       <c r="G100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D101" t="s">
@@ -3883,17 +3872,17 @@
         <v>121</v>
       </c>
       <c r="G101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D102" t="s">
@@ -3906,20 +3895,20 @@
         <v>121</v>
       </c>
       <c r="G102" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H102" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="24" t="s">
+      <c r="A103" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D103" t="s">
@@ -3932,20 +3921,20 @@
         <v>121</v>
       </c>
       <c r="G103" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H103" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D104" t="s">
@@ -3958,17 +3947,17 @@
         <v>121</v>
       </c>
       <c r="G104" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D105" t="s">
@@ -3981,20 +3970,20 @@
         <v>121</v>
       </c>
       <c r="G105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H105" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D106" t="s">
@@ -4007,17 +3996,17 @@
         <v>121</v>
       </c>
       <c r="G106" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D107" t="s">
@@ -4030,17 +4019,17 @@
         <v>121</v>
       </c>
       <c r="G107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D108" t="s">
@@ -4053,17 +4042,17 @@
         <v>121</v>
       </c>
       <c r="G108" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D109" t="s">
@@ -4076,21 +4065,21 @@
         <v>121</v>
       </c>
       <c r="G109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E110" t="s">
         <v>116</v>
@@ -4099,17 +4088,17 @@
         <v>121</v>
       </c>
       <c r="G110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D111" t="s">
@@ -4122,17 +4111,17 @@
         <v>121</v>
       </c>
       <c r="G111" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D112" t="s">
@@ -4145,17 +4134,17 @@
         <v>121</v>
       </c>
       <c r="G112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D113" t="s">
@@ -4168,17 +4157,17 @@
         <v>121</v>
       </c>
       <c r="G113" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D114" t="s">
@@ -4191,17 +4180,17 @@
         <v>121</v>
       </c>
       <c r="G114" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D115" t="s">
@@ -4214,17 +4203,17 @@
         <v>121</v>
       </c>
       <c r="G115" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D116" t="s">
@@ -4237,17 +4226,17 @@
         <v>121</v>
       </c>
       <c r="G116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D117" t="s">
@@ -4260,17 +4249,17 @@
         <v>121</v>
       </c>
       <c r="G117" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D118" t="s">
@@ -4283,17 +4272,17 @@
         <v>121</v>
       </c>
       <c r="G118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D119" t="s">
@@ -4306,21 +4295,21 @@
         <v>121</v>
       </c>
       <c r="G119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>196</v>
+      <c r="A120" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E120" t="s">
         <v>118</v>
@@ -4329,17 +4318,17 @@
         <v>121</v>
       </c>
       <c r="G120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D121" t="s">
@@ -4352,17 +4341,17 @@
         <v>121</v>
       </c>
       <c r="G121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D122" t="s">
@@ -4375,17 +4364,17 @@
         <v>121</v>
       </c>
       <c r="G122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D123" t="s">
@@ -4398,17 +4387,17 @@
         <v>121</v>
       </c>
       <c r="G123" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D124" t="s">
@@ -4421,17 +4410,17 @@
         <v>121</v>
       </c>
       <c r="G124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D125" t="s">
@@ -4444,17 +4433,17 @@
         <v>121</v>
       </c>
       <c r="G125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D126" t="s">
@@ -4467,17 +4456,17 @@
         <v>121</v>
       </c>
       <c r="G126" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D127" t="s">
@@ -4490,17 +4479,17 @@
         <v>121</v>
       </c>
       <c r="G127" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D128" t="s">
@@ -4513,17 +4502,17 @@
         <v>121</v>
       </c>
       <c r="G128" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D129" t="s">
@@ -4536,21 +4525,21 @@
         <v>121</v>
       </c>
       <c r="G129" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C130" s="4" t="s">
+      <c r="A130" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E130" t="s">
         <v>118</v>
@@ -4559,21 +4548,21 @@
         <v>121</v>
       </c>
       <c r="G130" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E131" t="s">
         <v>118</v>
@@ -4582,17 +4571,17 @@
         <v>121</v>
       </c>
       <c r="G131" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="23" t="s">
+      <c r="A132" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
@@ -4605,17 +4594,17 @@
         <v>121</v>
       </c>
       <c r="G132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
@@ -4628,17 +4617,17 @@
         <v>121</v>
       </c>
       <c r="G133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C134" s="4" t="s">
+      <c r="A134" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
@@ -4651,17 +4640,17 @@
         <v>121</v>
       </c>
       <c r="G134" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
@@ -4674,17 +4663,17 @@
         <v>121</v>
       </c>
       <c r="G135" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
@@ -4697,17 +4686,17 @@
         <v>121</v>
       </c>
       <c r="G136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="23" t="s">
+      <c r="A137" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
@@ -4720,17 +4709,17 @@
         <v>121</v>
       </c>
       <c r="G137" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
@@ -4743,18 +4732,18 @@
         <v>121</v>
       </c>
       <c r="G138" t="s">
-        <v>200</v>
-      </c>
-      <c r="H138" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D139" t="s">
@@ -4767,202 +4756,202 @@
         <v>121</v>
       </c>
       <c r="G139" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H139" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
       </c>
       <c r="E140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F140" t="s">
         <v>121</v>
       </c>
       <c r="G140" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H140" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>316</v>
-      </c>
-      <c r="B141" s="9" t="s">
+      <c r="A141" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D141" t="s">
         <v>120</v>
       </c>
       <c r="E141" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F141" t="s">
         <v>121</v>
       </c>
       <c r="G141" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H141" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D142" t="s">
         <v>120</v>
       </c>
       <c r="E142" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F142" t="s">
         <v>121</v>
       </c>
       <c r="G142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H142" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>120</v>
+      </c>
+      <c r="E143" t="s">
+        <v>115</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
+        <v>199</v>
+      </c>
+      <c r="H143" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>120</v>
+      </c>
+      <c r="E144" t="s">
+        <v>115</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" t="s">
+        <v>199</v>
+      </c>
+      <c r="H144" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C143" s="4" t="s">
+      <c r="B145" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D143" t="s">
-        <v>120</v>
-      </c>
-      <c r="E143" t="s">
-        <v>115</v>
-      </c>
-      <c r="F143" s="5" t="s">
+      <c r="D145" t="s">
+        <v>120</v>
+      </c>
+      <c r="E145" t="s">
+        <v>115</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G143" t="s">
-        <v>200</v>
-      </c>
-      <c r="H143" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="G145" t="s">
+        <v>199</v>
+      </c>
+      <c r="H145" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C144" s="4" t="s">
+      <c r="B146" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D144" t="s">
-        <v>120</v>
-      </c>
-      <c r="E144" t="s">
-        <v>115</v>
-      </c>
-      <c r="F144" s="5" t="s">
+      <c r="D146" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" t="s">
+        <v>115</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G144" t="s">
-        <v>200</v>
-      </c>
-      <c r="H144" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D145" t="s">
-        <v>120</v>
-      </c>
-      <c r="E145" t="s">
-        <v>115</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G145" t="s">
-        <v>200</v>
-      </c>
-      <c r="H145" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" t="s">
-        <v>120</v>
-      </c>
-      <c r="E146" t="s">
-        <v>115</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G146" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H146" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D147" t="s">
@@ -4971,21 +4960,21 @@
       <c r="E147" t="s">
         <v>116</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D148" t="s">
@@ -4994,34 +4983,34 @@
       <c r="E148" t="s">
         <v>118</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>196</v>
+      <c r="A149" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D149" t="s">
         <v>110</v>
       </c>
       <c r="E149" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H149" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/gt_sources/nern_et_al_2024/nern_et_al_2024.xlsx
+++ b/gt_sources/nern_et_al_2024/nern_et_al_2024.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56A6871-22C1-EE4F-ACD1-31B1607C7909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7431B5C4-A572-CD40-B486-D4247FDAB0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="760" windowWidth="33020" windowHeight="20480" xr2:uid="{8B32769E-D294-A542-91C3-E9CF9391C3F2}"/>
+    <workbookView xWindow="4760" yWindow="760" windowWidth="33020" windowHeight="20480" xr2:uid="{8B32769E-D294-A542-91C3-E9CF9391C3F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1487,8 +1487,8 @@
   <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
